--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Plat-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Plat-Lrp1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.280752333333332</v>
+        <v>11.92973733333333</v>
       </c>
       <c r="H2">
-        <v>27.842257</v>
+        <v>35.789212</v>
       </c>
       <c r="I2">
-        <v>0.1100677737582973</v>
+        <v>0.1260232909831994</v>
       </c>
       <c r="J2">
-        <v>0.1100677737582973</v>
+        <v>0.1260232909831994</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N2">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q2">
-        <v>75.46396891837932</v>
+        <v>45.27564766614712</v>
       </c>
       <c r="R2">
-        <v>679.1757202654138</v>
+        <v>407.480828995324</v>
       </c>
       <c r="S2">
-        <v>0.002301512276603067</v>
+        <v>0.00131595253984839</v>
       </c>
       <c r="T2">
-        <v>0.002301512276603068</v>
+        <v>0.00131595253984839</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.280752333333332</v>
+        <v>11.92973733333333</v>
       </c>
       <c r="H3">
-        <v>27.842257</v>
+        <v>35.789212</v>
       </c>
       <c r="I3">
-        <v>0.1100677737582973</v>
+        <v>0.1260232909831994</v>
       </c>
       <c r="J3">
-        <v>0.1100677737582973</v>
+        <v>0.1260232909831994</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N3">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q3">
-        <v>2258.71607980393</v>
+        <v>2903.41650922595</v>
       </c>
       <c r="R3">
-        <v>20328.44471823537</v>
+        <v>26130.74858303355</v>
       </c>
       <c r="S3">
-        <v>0.06888668673989407</v>
+        <v>0.08438881664878847</v>
       </c>
       <c r="T3">
-        <v>0.06888668673989408</v>
+        <v>0.08438881664878847</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.280752333333332</v>
+        <v>11.92973733333333</v>
       </c>
       <c r="H4">
-        <v>27.842257</v>
+        <v>35.789212</v>
       </c>
       <c r="I4">
-        <v>0.1100677737582973</v>
+        <v>0.1260232909831994</v>
       </c>
       <c r="J4">
-        <v>0.1100677737582973</v>
+        <v>0.1260232909831994</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N4">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q4">
-        <v>310.1511358524151</v>
+        <v>355.5225282032173</v>
       </c>
       <c r="R4">
-        <v>2791.360222671736</v>
+        <v>3199.702753828956</v>
       </c>
       <c r="S4">
-        <v>0.009459039287196411</v>
+        <v>0.01033338666764473</v>
       </c>
       <c r="T4">
-        <v>0.009459039287196415</v>
+        <v>0.01033338666764473</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.280752333333332</v>
+        <v>11.92973733333333</v>
       </c>
       <c r="H5">
-        <v>27.842257</v>
+        <v>35.789212</v>
       </c>
       <c r="I5">
-        <v>0.1100677737582973</v>
+        <v>0.1260232909831994</v>
       </c>
       <c r="J5">
-        <v>0.1100677737582973</v>
+        <v>0.1260232909831994</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N5">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O5">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P5">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q5">
-        <v>964.6658832449059</v>
+        <v>1031.64542194246</v>
       </c>
       <c r="R5">
-        <v>8681.992949204152</v>
+        <v>9284.808797482136</v>
       </c>
       <c r="S5">
-        <v>0.02942053545460372</v>
+        <v>0.02998513512691785</v>
       </c>
       <c r="T5">
-        <v>0.02942053545460372</v>
+        <v>0.02998513512691785</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>199.372071</v>
       </c>
       <c r="I6">
-        <v>0.7881702982826134</v>
+        <v>0.7020418476259299</v>
       </c>
       <c r="J6">
-        <v>0.7881702982826135</v>
+        <v>0.7020418476259298</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N6">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O6">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P6">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q6">
-        <v>540.3803207885379</v>
+        <v>252.2184517799964</v>
       </c>
       <c r="R6">
-        <v>4863.422887096842</v>
+        <v>2269.966066019967</v>
       </c>
       <c r="S6">
-        <v>0.01648060604491505</v>
+        <v>0.007330817543769436</v>
       </c>
       <c r="T6">
-        <v>0.01648060604491505</v>
+        <v>0.007330817543769435</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>199.372071</v>
       </c>
       <c r="I7">
-        <v>0.7881702982826134</v>
+        <v>0.7020418476259299</v>
       </c>
       <c r="J7">
-        <v>0.7881702982826135</v>
+        <v>0.7020418476259298</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,13 +868,13 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N7">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O7">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P7">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q7">
         <v>16174.15221156499</v>
@@ -883,10 +883,10 @@
         <v>145567.3699040849</v>
       </c>
       <c r="S7">
-        <v>0.4932818987936545</v>
+        <v>0.4701073928229613</v>
       </c>
       <c r="T7">
-        <v>0.4932818987936546</v>
+        <v>0.4701073928229612</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>199.372071</v>
       </c>
       <c r="I8">
-        <v>0.7881702982826134</v>
+        <v>0.7020418476259299</v>
       </c>
       <c r="J8">
-        <v>0.7881702982826135</v>
+        <v>0.7020418476259298</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N8">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O8">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P8">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q8">
-        <v>2220.921754938845</v>
+        <v>1980.520351636447</v>
       </c>
       <c r="R8">
-        <v>19988.29579444961</v>
+        <v>17824.68316472802</v>
       </c>
       <c r="S8">
-        <v>0.06773402933385439</v>
+        <v>0.05756451693801246</v>
       </c>
       <c r="T8">
-        <v>0.0677340293338544</v>
+        <v>0.05756451693801243</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>199.372071</v>
       </c>
       <c r="I9">
-        <v>0.7881702982826134</v>
+        <v>0.7020418476259299</v>
       </c>
       <c r="J9">
-        <v>0.7881702982826135</v>
+        <v>0.7020418476259298</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N9">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O9">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P9">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q9">
-        <v>6907.753023240218</v>
+        <v>5747.019082463649</v>
       </c>
       <c r="R9">
-        <v>62169.77720916196</v>
+        <v>51723.17174217285</v>
       </c>
       <c r="S9">
-        <v>0.2106737641101895</v>
+        <v>0.1670391203211867</v>
       </c>
       <c r="T9">
-        <v>0.2106737641101895</v>
+        <v>0.1670391203211867</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.280368333333334</v>
+        <v>16.00434166666667</v>
       </c>
       <c r="H10">
-        <v>24.841105</v>
+        <v>48.013025</v>
       </c>
       <c r="I10">
-        <v>0.09820342959430721</v>
+        <v>0.1690665729259037</v>
       </c>
       <c r="J10">
-        <v>0.09820342959430722</v>
+        <v>0.1690665729259037</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N10">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O10">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P10">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q10">
-        <v>67.32961252452333</v>
+        <v>60.73955479338056</v>
       </c>
       <c r="R10">
-        <v>605.9665127207099</v>
+        <v>546.655993140425</v>
       </c>
       <c r="S10">
-        <v>0.002053429365366674</v>
+        <v>0.001765416410804302</v>
       </c>
       <c r="T10">
-        <v>0.002053429365366674</v>
+        <v>0.001765416410804302</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.280368333333334</v>
+        <v>16.00434166666667</v>
       </c>
       <c r="H11">
-        <v>24.841105</v>
+        <v>48.013025</v>
       </c>
       <c r="I11">
-        <v>0.09820342959430721</v>
+        <v>0.1690665729259037</v>
       </c>
       <c r="J11">
-        <v>0.09820342959430722</v>
+        <v>0.1690665729259037</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N11">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O11">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P11">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q11">
-        <v>2015.246224600176</v>
+        <v>3895.079037864211</v>
       </c>
       <c r="R11">
-        <v>18137.21602140158</v>
+        <v>35055.7113407779</v>
       </c>
       <c r="S11">
-        <v>0.06146130388810851</v>
+        <v>0.1132118349931453</v>
       </c>
       <c r="T11">
-        <v>0.06146130388810851</v>
+        <v>0.1132118349931453</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.280368333333334</v>
+        <v>16.00434166666667</v>
       </c>
       <c r="H12">
-        <v>24.841105</v>
+        <v>48.013025</v>
       </c>
       <c r="I12">
-        <v>0.09820342959430721</v>
+        <v>0.1690665729259037</v>
       </c>
       <c r="J12">
-        <v>0.09820342959430722</v>
+        <v>0.1690665729259037</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N12">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O12">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P12">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q12">
-        <v>276.7195537193377</v>
+        <v>476.9513236190916</v>
       </c>
       <c r="R12">
-        <v>2490.47598347404</v>
+        <v>4292.561912571825</v>
       </c>
       <c r="S12">
-        <v>0.008439437511562776</v>
+        <v>0.01386275709027327</v>
       </c>
       <c r="T12">
-        <v>0.008439437511562776</v>
+        <v>0.01386275709027326</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8.280368333333334</v>
+        <v>16.00434166666667</v>
       </c>
       <c r="H13">
-        <v>24.841105</v>
+        <v>48.013025</v>
       </c>
       <c r="I13">
-        <v>0.09820342959430721</v>
+        <v>0.1690665729259037</v>
       </c>
       <c r="J13">
-        <v>0.09820342959430722</v>
+        <v>0.1690665729259037</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N13">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O13">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P13">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q13">
-        <v>860.6833309384527</v>
+        <v>1384.004136074828</v>
       </c>
       <c r="R13">
-        <v>7746.149978446074</v>
+        <v>12456.03722467345</v>
       </c>
       <c r="S13">
-        <v>0.02624925882926926</v>
+        <v>0.04022656443168083</v>
       </c>
       <c r="T13">
-        <v>0.02624925882926926</v>
+        <v>0.04022656443168083</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3000473333333333</v>
+        <v>0.2715206666666667</v>
       </c>
       <c r="H14">
-        <v>0.900142</v>
+        <v>0.814562</v>
       </c>
       <c r="I14">
-        <v>0.003558498364782037</v>
+        <v>0.002868288464966955</v>
       </c>
       <c r="J14">
-        <v>0.003558498364782038</v>
+        <v>0.002868288464966954</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N14">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O14">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P14">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q14">
-        <v>2.439755078409333</v>
+        <v>1.030473152474889</v>
       </c>
       <c r="R14">
-        <v>21.957795705684</v>
+        <v>9.274258372274002</v>
       </c>
       <c r="S14">
-        <v>7.440804327343283E-05</v>
+        <v>2.995106270470511E-05</v>
       </c>
       <c r="T14">
-        <v>7.440804327343285E-05</v>
+        <v>2.995106270470511E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3000473333333333</v>
+        <v>0.2715206666666667</v>
       </c>
       <c r="H15">
-        <v>0.900142</v>
+        <v>0.814562</v>
       </c>
       <c r="I15">
-        <v>0.003558498364782037</v>
+        <v>0.002868288464966955</v>
       </c>
       <c r="J15">
-        <v>0.003558498364782038</v>
+        <v>0.002868288464966954</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N15">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O15">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P15">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q15">
-        <v>73.02443941620355</v>
+        <v>66.08172201690579</v>
       </c>
       <c r="R15">
-        <v>657.219954745832</v>
+        <v>594.7354981521521</v>
       </c>
       <c r="S15">
-        <v>0.002227111112989932</v>
+        <v>0.001920688370201346</v>
       </c>
       <c r="T15">
-        <v>0.002227111112989932</v>
+        <v>0.001920688370201345</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3000473333333333</v>
+        <v>0.2715206666666667</v>
       </c>
       <c r="H16">
-        <v>0.900142</v>
+        <v>0.814562</v>
       </c>
       <c r="I16">
-        <v>0.003558498364782037</v>
+        <v>0.002868288464966955</v>
       </c>
       <c r="J16">
-        <v>0.003558498364782038</v>
+        <v>0.002868288464966954</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N16">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O16">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P16">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q16">
-        <v>10.02720662080178</v>
+        <v>8.091688121500667</v>
       </c>
       <c r="R16">
-        <v>90.244859587216</v>
+        <v>72.825193093506</v>
       </c>
       <c r="S16">
-        <v>0.0003058113622776901</v>
+        <v>0.000235187746261919</v>
       </c>
       <c r="T16">
-        <v>0.0003058113622776902</v>
+        <v>0.0002351877462619189</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3000473333333333</v>
+        <v>0.2715206666666667</v>
       </c>
       <c r="H17">
-        <v>0.900142</v>
+        <v>0.814562</v>
       </c>
       <c r="I17">
-        <v>0.003558498364782037</v>
+        <v>0.002868288464966955</v>
       </c>
       <c r="J17">
-        <v>0.003558498364782038</v>
+        <v>0.002868288464966954</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N17">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O17">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P17">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q17">
-        <v>31.18771145154777</v>
+        <v>23.48023639604845</v>
       </c>
       <c r="R17">
-        <v>280.6894030639299</v>
+        <v>211.322127564436</v>
       </c>
       <c r="S17">
-        <v>0.000951167846240982</v>
+        <v>0.0006824612857989848</v>
       </c>
       <c r="T17">
-        <v>0.0009511678462409822</v>
+        <v>0.0006824612857989847</v>
       </c>
     </row>
   </sheetData>
